--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il17b-Il17rb.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il17b-Il17rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Il17b</t>
   </si>
   <si>
     <t>Il17rb</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.69892450221036</v>
+        <v>0.7828784999999999</v>
       </c>
       <c r="H2">
-        <v>0.69892450221036</v>
+        <v>1.565757</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.858746616720735</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8020971487321978</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.32919075551104</v>
+        <v>1.3424935</v>
       </c>
       <c r="N2">
-        <v>1.32919075551104</v>
+        <v>2.684987</v>
       </c>
       <c r="O2">
-        <v>0.1647188366343534</v>
+        <v>0.1531021816890919</v>
       </c>
       <c r="P2">
-        <v>0.1647188366343534</v>
+        <v>0.1194837990086757</v>
       </c>
       <c r="Q2">
-        <v>0.9290039871381659</v>
+        <v>1.05100929753975</v>
       </c>
       <c r="R2">
-        <v>0.9290039871381659</v>
+        <v>4.204037190158999</v>
       </c>
       <c r="S2">
-        <v>0.1647188366343534</v>
+        <v>0.1314759805380709</v>
       </c>
       <c r="T2">
-        <v>0.1647188366343534</v>
+        <v>0.09583761450454979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.69892450221036</v>
+        <v>0.7828784999999999</v>
       </c>
       <c r="H3">
-        <v>0.69892450221036</v>
+        <v>1.565757</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.858746616720735</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8020971487321978</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.60231070073941</v>
+        <v>0.5136346666666667</v>
       </c>
       <c r="N3">
-        <v>1.60231070073941</v>
+        <v>1.540904</v>
       </c>
       <c r="O3">
-        <v>0.1985649941201227</v>
+        <v>0.05857651307646269</v>
       </c>
       <c r="P3">
-        <v>0.1985649941201227</v>
+        <v>0.0685713054952089</v>
       </c>
       <c r="Q3">
-        <v>1.119894208900625</v>
+        <v>0.402113537388</v>
       </c>
       <c r="R3">
-        <v>1.119894208900625</v>
+        <v>2.412681224328</v>
       </c>
       <c r="S3">
-        <v>0.1985649941201227</v>
+        <v>0.05030238242371023</v>
       </c>
       <c r="T3">
-        <v>0.1985649941201227</v>
+        <v>0.05500084862255155</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.69892450221036</v>
+        <v>0.7828784999999999</v>
       </c>
       <c r="H4">
-        <v>0.69892450221036</v>
+        <v>1.565757</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.858746616720735</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.8020971487321978</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.53714089754959</v>
+        <v>1.634555</v>
       </c>
       <c r="N4">
-        <v>1.53714089754959</v>
+        <v>4.903665</v>
       </c>
       <c r="O4">
-        <v>0.1904888815526758</v>
+        <v>0.186409793858081</v>
       </c>
       <c r="P4">
-        <v>0.1904888815526758</v>
+        <v>0.2182165214453097</v>
       </c>
       <c r="Q4">
-        <v>1.074345436647033</v>
+        <v>1.2796579665675</v>
       </c>
       <c r="R4">
-        <v>1.074345436647033</v>
+        <v>7.677947799405</v>
       </c>
       <c r="S4">
-        <v>0.1904888815526758</v>
+        <v>0.1600787797992367</v>
       </c>
       <c r="T4">
-        <v>0.1904888815526758</v>
+        <v>0.1750308496575414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.69892450221036</v>
+        <v>0.7828784999999999</v>
       </c>
       <c r="H5">
-        <v>0.69892450221036</v>
+        <v>1.565757</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.858746616720735</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.8020971487321978</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.13732634981809</v>
+        <v>1.624606333333333</v>
       </c>
       <c r="N5">
-        <v>1.13732634981809</v>
+        <v>4.873818999999999</v>
       </c>
       <c r="O5">
-        <v>0.1409422029448319</v>
+        <v>0.185275216616877</v>
       </c>
       <c r="P5">
-        <v>0.1409422029448319</v>
+        <v>0.2168883535751439</v>
       </c>
       <c r="Q5">
-        <v>0.7949052528973344</v>
+        <v>1.2718693693305</v>
       </c>
       <c r="R5">
-        <v>0.7949052528973344</v>
+        <v>7.631216215982998</v>
       </c>
       <c r="S5">
-        <v>0.1409422029448319</v>
+        <v>0.1591044654319445</v>
       </c>
       <c r="T5">
-        <v>0.1409422029448319</v>
+        <v>0.1739655299958437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,495 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.7828784999999999</v>
+      </c>
+      <c r="H6">
+        <v>1.565757</v>
+      </c>
+      <c r="I6">
+        <v>0.858746616720735</v>
+      </c>
+      <c r="J6">
+        <v>0.8020971487321978</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.161538666666667</v>
+      </c>
+      <c r="N6">
+        <v>3.484616</v>
+      </c>
+      <c r="O6">
+        <v>0.1324655232840275</v>
+      </c>
+      <c r="P6">
+        <v>0.1550678486586399</v>
+      </c>
+      <c r="Q6">
+        <v>0.9093436490519999</v>
+      </c>
+      <c r="R6">
+        <v>5.456061894312</v>
+      </c>
+      <c r="S6">
+        <v>0.1137543199523004</v>
+      </c>
+      <c r="T6">
+        <v>0.124379479269131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7828784999999999</v>
+      </c>
+      <c r="H7">
+        <v>1.565757</v>
+      </c>
+      <c r="I7">
+        <v>0.858746616720735</v>
+      </c>
+      <c r="J7">
+        <v>0.8020971487321978</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.491783</v>
+      </c>
+      <c r="N7">
+        <v>4.983566</v>
+      </c>
+      <c r="O7">
+        <v>0.28417077147546</v>
+      </c>
+      <c r="P7">
+        <v>0.2217721718170218</v>
+      </c>
+      <c r="Q7">
+        <v>1.9507633373655</v>
+      </c>
+      <c r="R7">
+        <v>7.803053349461999</v>
+      </c>
+      <c r="S7">
+        <v>0.2440306885754724</v>
+      </c>
+      <c r="T7">
+        <v>0.1778828266825803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.128774</v>
+      </c>
+      <c r="H8">
+        <v>0.386322</v>
+      </c>
+      <c r="I8">
+        <v>0.1412533832792648</v>
+      </c>
+      <c r="J8">
+        <v>0.1979028512678022</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.3424935</v>
+      </c>
+      <c r="N8">
+        <v>2.684987</v>
+      </c>
+      <c r="O8">
+        <v>0.1531021816890919</v>
+      </c>
+      <c r="P8">
+        <v>0.1194837990086757</v>
+      </c>
+      <c r="Q8">
+        <v>0.172878257969</v>
+      </c>
+      <c r="R8">
+        <v>1.037269547814</v>
+      </c>
+      <c r="S8">
+        <v>0.02162620115102094</v>
+      </c>
+      <c r="T8">
+        <v>0.02364618450412592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.128774</v>
+      </c>
+      <c r="H9">
+        <v>0.386322</v>
+      </c>
+      <c r="I9">
+        <v>0.1412533832792648</v>
+      </c>
+      <c r="J9">
+        <v>0.1979028512678022</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.5136346666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.540904</v>
+      </c>
+      <c r="O9">
+        <v>0.05857651307646269</v>
+      </c>
+      <c r="P9">
+        <v>0.0685713054952089</v>
+      </c>
+      <c r="Q9">
+        <v>0.06614279056533333</v>
+      </c>
+      <c r="R9">
+        <v>0.595285115088</v>
+      </c>
+      <c r="S9">
+        <v>0.008274130652752454</v>
+      </c>
+      <c r="T9">
+        <v>0.01357045687265735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.128774</v>
+      </c>
+      <c r="H10">
+        <v>0.386322</v>
+      </c>
+      <c r="I10">
+        <v>0.1412533832792648</v>
+      </c>
+      <c r="J10">
+        <v>0.1979028512678022</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.634555</v>
+      </c>
+      <c r="N10">
+        <v>4.903665</v>
+      </c>
+      <c r="O10">
+        <v>0.186409793858081</v>
+      </c>
+      <c r="P10">
+        <v>0.2182165214453097</v>
+      </c>
+      <c r="Q10">
+        <v>0.21048818557</v>
+      </c>
+      <c r="R10">
+        <v>1.89439367013</v>
+      </c>
+      <c r="S10">
+        <v>0.02633101405884426</v>
+      </c>
+      <c r="T10">
+        <v>0.0431856717877683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.69892450221036</v>
-      </c>
-      <c r="H6">
-        <v>0.69892450221036</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>2.46348335584249</v>
-      </c>
-      <c r="N6">
-        <v>2.46348335584249</v>
-      </c>
-      <c r="O6">
-        <v>0.3052850847480163</v>
-      </c>
-      <c r="P6">
-        <v>0.3052850847480163</v>
-      </c>
-      <c r="Q6">
-        <v>1.721788878185719</v>
-      </c>
-      <c r="R6">
-        <v>1.721788878185719</v>
-      </c>
-      <c r="S6">
-        <v>0.3052850847480163</v>
-      </c>
-      <c r="T6">
-        <v>0.3052850847480163</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.128774</v>
+      </c>
+      <c r="H11">
+        <v>0.386322</v>
+      </c>
+      <c r="I11">
+        <v>0.1412533832792648</v>
+      </c>
+      <c r="J11">
+        <v>0.1979028512678022</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.624606333333333</v>
+      </c>
+      <c r="N11">
+        <v>4.873818999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.185275216616877</v>
+      </c>
+      <c r="P11">
+        <v>0.2168883535751439</v>
+      </c>
+      <c r="Q11">
+        <v>0.2092070559686666</v>
+      </c>
+      <c r="R11">
+        <v>1.882863503718</v>
+      </c>
+      <c r="S11">
+        <v>0.02617075118493255</v>
+      </c>
+      <c r="T11">
+        <v>0.04292282357930019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.128774</v>
+      </c>
+      <c r="H12">
+        <v>0.386322</v>
+      </c>
+      <c r="I12">
+        <v>0.1412533832792648</v>
+      </c>
+      <c r="J12">
+        <v>0.1979028512678022</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.161538666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.484616</v>
+      </c>
+      <c r="O12">
+        <v>0.1324655232840275</v>
+      </c>
+      <c r="P12">
+        <v>0.1550678486586399</v>
+      </c>
+      <c r="Q12">
+        <v>0.1495759802613333</v>
+      </c>
+      <c r="R12">
+        <v>1.346183822352</v>
+      </c>
+      <c r="S12">
+        <v>0.01871120333172712</v>
+      </c>
+      <c r="T12">
+        <v>0.03068836938950887</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.128774</v>
+      </c>
+      <c r="H13">
+        <v>0.386322</v>
+      </c>
+      <c r="I13">
+        <v>0.1412533832792648</v>
+      </c>
+      <c r="J13">
+        <v>0.1979028512678022</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.491783</v>
+      </c>
+      <c r="N13">
+        <v>4.983566</v>
+      </c>
+      <c r="O13">
+        <v>0.28417077147546</v>
+      </c>
+      <c r="P13">
+        <v>0.2217721718170218</v>
+      </c>
+      <c r="Q13">
+        <v>0.320876864042</v>
+      </c>
+      <c r="R13">
+        <v>1.925261184252</v>
+      </c>
+      <c r="S13">
+        <v>0.04014008289998753</v>
+      </c>
+      <c r="T13">
+        <v>0.04388934513444154</v>
       </c>
     </row>
   </sheetData>
